--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 27057-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 27057-2023.xlsx", "A 27057-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 27057-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 27057-2023.png", "A 27057-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 27057-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 27057-2023.png", "A 27057-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 27057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 27057-2023.docx", "A 27057-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 27057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 27057-2023.docx", "A 27057-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 27057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 27057-2023.docx", "A 27057-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 27057-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 27057-2023.docx", "A 27057-2023")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>45068</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -740,31 +740,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 21840-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 21840-2023.xlsx", "A 21840-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 21840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 21840-2023.png", "A 21840-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 21840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 21840-2023.png", "A 21840-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 21840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 21840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 21840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 21840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>45050</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,31 +837,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 19650-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 19650-2023.xlsx", "A 19650-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 19650-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 19650-2023.png", "A 19650-2023")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 19650-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 19650-2023.png", "A 19650-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 19650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 19650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 19650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 19650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>44865</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,27 +932,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 50300-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 50300-2022.xlsx", "A 50300-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 50300-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 50300-2022.png", "A 50300-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 50300-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 50300-2022.docx", "A 50300-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 50300-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 50300-2022.docx", "A 50300-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 50300-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 50300-2022.docx", "A 50300-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 50300-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 50300-2022.docx", "A 50300-2022")</f>
         <v/>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>44126</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,27 +1026,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 54390-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 54390-2020.xlsx", "A 54390-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 54390-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 54390-2020.png", "A 54390-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 54390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 54390-2020.docx", "A 54390-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 54390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 54390-2020.docx", "A 54390-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 54390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 54390-2020.docx", "A 54390-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 54390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 54390-2020.docx", "A 54390-2020")</f>
         <v/>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>44368</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,27 +1120,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 31305-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 31305-2021.xlsx", "A 31305-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 31305-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 31305-2021.png", "A 31305-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 31305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 31305-2021.docx", "A 31305-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 31305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 31305-2021.docx", "A 31305-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 31305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 31305-2021.docx", "A 31305-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 31305-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 31305-2021.docx", "A 31305-2021")</f>
         <v/>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
         <v>44880</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,27 +1214,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 54504-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 54504-2022.xlsx", "A 54504-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 54504-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 54504-2022.png", "A 54504-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 54504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 54504-2022.docx", "A 54504-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 54504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 54504-2022.docx", "A 54504-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 54504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 54504-2022.docx", "A 54504-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 54504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 54504-2022.docx", "A 54504-2022")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>45017</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,27 +1303,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 15202-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 15202-2023.xlsx", "A 15202-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 15202-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 15202-2023.png", "A 15202-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 15202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 15202-2023.docx", "A 15202-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 15202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 15202-2023.docx", "A 15202-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 15202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 15202-2023.docx", "A 15202-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 15202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 15202-2023.docx", "A 15202-2023")</f>
         <v/>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,31 +1390,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 3458-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 3458-2021.xlsx", "A 3458-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 3458-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 3458-2021.png", "A 3458-2021")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 3458-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 3458-2021.png", "A 3458-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 3458-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 3458-2021.docx", "A 3458-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 3458-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 3458-2021.docx", "A 3458-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 3458-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 3458-2021.docx", "A 3458-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 3458-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 3458-2021.docx", "A 3458-2021")</f>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>44441</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,31 +1481,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 46019-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 46019-2021.xlsx", "A 46019-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 46019-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 46019-2021.png", "A 46019-2021")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 46019-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 46019-2021.png", "A 46019-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 46019-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 46019-2021.docx", "A 46019-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 46019-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 46019-2021.docx", "A 46019-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 46019-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 46019-2021.docx", "A 46019-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 46019-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 46019-2021.docx", "A 46019-2021")</f>
         <v/>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>45044</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,27 +1572,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 19133-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 19133-2023.xlsx", "A 19133-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 19133-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 19133-2023.png", "A 19133-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 19133-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 19133-2023.docx", "A 19133-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 19133-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 19133-2023.docx", "A 19133-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 19133-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 19133-2023.docx", "A 19133-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 19133-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 19133-2023.docx", "A 19133-2023")</f>
         <v/>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
         <v>43593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,27 +1663,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 23307-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 23307-2019.xlsx", "A 23307-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 23307-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 23307-2019.png", "A 23307-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 23307-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 23307-2019.docx", "A 23307-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 23307-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 23307-2019.docx", "A 23307-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 23307-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 23307-2019.docx", "A 23307-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 23307-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 23307-2019.docx", "A 23307-2019")</f>
         <v/>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>44368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1754,27 +1754,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 31306-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 31306-2021.xlsx", "A 31306-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 31306-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 31306-2021.png", "A 31306-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 31306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 31306-2021.docx", "A 31306-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 31306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 31306-2021.docx", "A 31306-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 31306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 31306-2021.docx", "A 31306-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 31306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 31306-2021.docx", "A 31306-2021")</f>
         <v/>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1840,27 +1840,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 48789-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 48789-2021.xlsx", "A 48789-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 48789-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 48789-2021.png", "A 48789-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 48789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 48789-2021.docx", "A 48789-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 48789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 48789-2021.docx", "A 48789-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 48789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 48789-2021.docx", "A 48789-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 48789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 48789-2021.docx", "A 48789-2021")</f>
         <v/>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>44495</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,27 +1931,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 60090-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 60090-2021.xlsx", "A 60090-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 60090-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 60090-2021.png", "A 60090-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 60090-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 60090-2021.docx", "A 60090-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 60090-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 60090-2021.docx", "A 60090-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 60090-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 60090-2021.docx", "A 60090-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 60090-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 60090-2021.docx", "A 60090-2021")</f>
         <v/>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
         <v>44714</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,27 +2017,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 22668-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 22668-2022.xlsx", "A 22668-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 22668-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 22668-2022.png", "A 22668-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 22668-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 22668-2022.docx", "A 22668-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 22668-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 22668-2022.docx", "A 22668-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 22668-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 22668-2022.docx", "A 22668-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 22668-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 22668-2022.docx", "A 22668-2022")</f>
         <v/>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,27 +2108,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 43057-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 43057-2022.xlsx", "A 43057-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 43057-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 43057-2022.png", "A 43057-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 43057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 43057-2022.docx", "A 43057-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 43057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 43057-2022.docx", "A 43057-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 43057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 43057-2022.docx", "A 43057-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 43057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 43057-2022.docx", "A 43057-2022")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>43629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,27 +2193,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 29381-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 29381-2019.xlsx", "A 29381-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 29381-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 29381-2019.png", "A 29381-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 29381-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 29381-2019.docx", "A 29381-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 29381-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 29381-2019.docx", "A 29381-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 29381-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 29381-2019.docx", "A 29381-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 29381-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 29381-2019.docx", "A 29381-2019")</f>
         <v/>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <v>43686</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,27 +2283,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 38711-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 38711-2019.xlsx", "A 38711-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 38711-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 38711-2019.png", "A 38711-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 38711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 38711-2019.docx", "A 38711-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 38711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 38711-2019.docx", "A 38711-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 38711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 38711-2019.docx", "A 38711-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 38711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 38711-2019.docx", "A 38711-2019")</f>
         <v/>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,27 +2368,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 33029-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 33029-2022.xlsx", "A 33029-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 33029-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 33029-2022.png", "A 33029-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 33029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 33029-2022.docx", "A 33029-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 33029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 33029-2022.docx", "A 33029-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 33029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 33029-2022.docx", "A 33029-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 33029-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 33029-2022.docx", "A 33029-2022")</f>
         <v/>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>45161</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2453,27 +2453,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 38349-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 38349-2023.xlsx", "A 38349-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 38349-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 38349-2023.png", "A 38349-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 38349-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 38349-2023.docx", "A 38349-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 38349-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 38349-2023.docx", "A 38349-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 38349-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 38349-2023.docx", "A 38349-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 38349-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 38349-2023.docx", "A 38349-2023")</f>
         <v/>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43339</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43395</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43396</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43437</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43461</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43507</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43541</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43551</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43557</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43605</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43607</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43658</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43740</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43745</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43752</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43766</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43787</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43789</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43790</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43797</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43803</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43809</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43829</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43857</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43900</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43936</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43943</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43945</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44000</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44004</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44013</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44060</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44113</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44127</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44130</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44153</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44183</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44194</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44214</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44217</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44238</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44244</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44245</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44252</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44258</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44277</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44291</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44305</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44354</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44363</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44366</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44389</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44403</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44404</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44406</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44417</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44418</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44423</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44424</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44426</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44434</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44440</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44441</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44452</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44494</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44497</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44504</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44508</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44515</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44522</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44529</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44532</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44538</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44544</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44557</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44564</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44571</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44585</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44587</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44589</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44601</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44635</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44662</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>44671</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44683</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44690</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44692</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44715</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44726</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44748</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44770</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44776</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44816</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44860</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44879</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44881</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44883</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44888</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44901</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44904</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44907</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44916</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44917</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44928</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44945</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44981</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44987</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45011</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45048</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45049</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45050</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45063</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45068</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45092</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45118</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45136</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45142</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,59 +670,157 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>A 36117-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45148</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ÖVERTORNEÅ</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Mörk kolflarnlav
+Spillkråka
+Tallticka
+Ullticka
+Vitplätt
+Bronshjon
+Bårdlav
+Skinnlav
+Stor aspticka
+Stuplav
+Vedticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 36117-2023.xlsx", "A 36117-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 36117-2023.png", "A 36117-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 36117-2023.docx", "A 36117-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 36117-2023.docx", "A 36117-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 36117-2023.docx", "A 36117-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 36117-2023.docx", "A 36117-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>A 21840-2023</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45068</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ÖVERTORNEÅ</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ÖVERTORNEÅ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>30.5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>6</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>13</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -739,91 +837,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 21840-2023.xlsx", "A 21840-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 21840-2023.png", "A 21840-2023")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 21840-2023.png", "A 21840-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 21840-2023.docx", "A 21840-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 19650-2023</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45050</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ÖVERTORNEÅ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖVERTORNEÅ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>11.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>9</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -836,128 +934,35 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 19650-2023.xlsx", "A 19650-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 19650-2023.png", "A 19650-2023")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/knärot/A 19650-2023.png", "A 19650-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 19650-2023.docx", "A 19650-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 36117-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖVERTORNEÅ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Ullticka
-Vitplätt
-Bronshjon
-Bårdlav
-Skinnlav
-Stor aspticka
-Stuplav
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/artfynd/A 36117-2023.xlsx", "A 36117-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/kartor/A 36117-2023.png", "A 36117-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomål/A 36117-2023.docx", "A 36117-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/klagomålsmail/A 36117-2023.docx", "A 36117-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsyn/A 36117-2023.docx", "A 36117-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERTORNEA/tillsynsmail/A 36117-2023.docx", "A 36117-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -968,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1790,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2320,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2410,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2585,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2642,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2699,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2756,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2813,7 +2818,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,7 +2875,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2927,7 +2932,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2984,7 +2989,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3041,7 +3046,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3098,7 +3103,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3155,7 +3160,7 @@
         <v>43378</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3212,7 +3217,7 @@
         <v>43395</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3269,7 +3274,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3326,7 +3331,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3383,7 +3388,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3440,7 +3445,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3497,7 +3502,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3554,7 +3559,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3611,7 +3616,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3668,7 +3673,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3725,7 +3730,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3782,7 +3787,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3844,7 +3849,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3901,7 +3906,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3963,7 +3968,7 @@
         <v>43442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4020,7 +4025,7 @@
         <v>43444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4077,7 +4082,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4134,7 +4139,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4191,7 +4196,7 @@
         <v>43451</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4248,7 +4253,7 @@
         <v>43461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4305,7 +4310,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4362,7 +4367,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4419,7 +4424,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4476,7 +4481,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4533,7 +4538,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4590,7 +4595,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4647,7 +4652,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4704,7 +4709,7 @@
         <v>43495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4761,7 +4766,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4818,7 +4823,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4875,7 +4880,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4932,7 +4937,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4994,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5051,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5108,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5165,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5222,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5279,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5331,7 +5336,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5388,7 +5393,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5445,7 +5450,7 @@
         <v>43546</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5502,7 +5507,7 @@
         <v>43551</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5559,7 +5564,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5621,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,7 +5678,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5730,7 +5735,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5792,7 @@
         <v>43593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,7 +5849,7 @@
         <v>43600</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5901,7 +5906,7 @@
         <v>43605</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5958,7 +5963,7 @@
         <v>43607</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6015,7 +6020,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6072,7 +6077,7 @@
         <v>43610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6129,7 +6134,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6191,7 @@
         <v>43629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6248,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6305,7 +6310,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6362,7 +6367,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6419,7 +6424,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6481,7 +6486,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6538,7 +6543,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6595,7 +6600,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6652,7 +6657,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6709,7 +6714,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6766,7 +6771,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6823,7 +6828,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6880,7 +6885,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6937,7 +6942,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6994,7 +6999,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7051,7 +7056,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7108,7 +7113,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7165,7 +7170,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7222,7 +7227,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7279,7 +7284,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7393,7 +7398,7 @@
         <v>43707</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7460,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7512,7 +7517,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7569,7 +7574,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7626,7 +7631,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7683,7 +7688,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7740,7 +7745,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7797,7 +7802,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7854,7 +7859,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7911,7 +7916,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7968,7 +7973,7 @@
         <v>43745</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8025,7 +8030,7 @@
         <v>43748</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8087,7 +8092,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8144,7 +8149,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8201,7 +8206,7 @@
         <v>43762</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8263,7 +8268,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8320,7 +8325,7 @@
         <v>43778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8377,7 +8382,7 @@
         <v>43781</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8434,7 +8439,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8491,7 +8496,7 @@
         <v>43787</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8548,7 +8553,7 @@
         <v>43789</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8605,7 +8610,7 @@
         <v>43790</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8662,7 +8667,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8719,7 +8724,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8776,7 +8781,7 @@
         <v>43797</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8833,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8890,7 +8895,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8947,7 +8952,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9004,7 +9009,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9061,7 +9066,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9118,7 +9123,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9175,7 +9180,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9232,7 +9237,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9289,7 +9294,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9346,7 +9351,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9403,7 +9408,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9460,7 +9465,7 @@
         <v>43819</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9517,7 +9522,7 @@
         <v>43829</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9574,7 +9579,7 @@
         <v>43852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9631,7 +9636,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9688,7 +9693,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9745,7 +9750,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9802,7 +9807,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9859,7 +9864,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9916,7 +9921,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9973,7 +9978,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10030,7 +10035,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10087,7 +10092,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10144,7 +10149,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10201,7 +10206,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10258,7 +10263,7 @@
         <v>43936</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10315,7 +10320,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10372,7 +10377,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10429,7 +10434,7 @@
         <v>43945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10486,7 +10491,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10543,7 +10548,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10600,7 +10605,7 @@
         <v>44000</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10657,7 +10662,7 @@
         <v>44004</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10714,7 +10719,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10771,7 +10776,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10828,7 +10833,7 @@
         <v>44013</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10890,7 +10895,7 @@
         <v>44015</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10952,7 +10957,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11009,7 +11014,7 @@
         <v>44074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11071,7 +11076,7 @@
         <v>44077</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11128,7 +11133,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11185,7 +11190,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11242,7 +11247,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11299,7 +11304,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11356,7 +11361,7 @@
         <v>44113</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11413,7 +11418,7 @@
         <v>44123</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11470,7 +11475,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11527,7 +11532,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11584,7 +11589,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11641,7 +11646,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11698,7 +11703,7 @@
         <v>44132</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11755,7 +11760,7 @@
         <v>44135</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11812,7 +11817,7 @@
         <v>44153</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11869,7 +11874,7 @@
         <v>44172</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11926,7 +11931,7 @@
         <v>44183</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11983,7 +11988,7 @@
         <v>44194</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12045,7 +12050,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12102,7 +12107,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12159,7 +12164,7 @@
         <v>44217</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12216,7 +12221,7 @@
         <v>44225</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12273,7 +12278,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12330,7 +12335,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12387,7 +12392,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12444,7 +12449,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12501,7 +12506,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12558,7 +12563,7 @@
         <v>44245</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12620,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12677,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12734,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12791,7 @@
         <v>44258</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12848,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12900,7 +12905,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12957,7 +12962,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13014,7 +13019,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13071,7 +13076,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13128,7 +13133,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13185,7 +13190,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13242,7 +13247,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13299,7 +13304,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13356,7 +13361,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13413,7 +13418,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13470,7 +13475,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13527,7 +13532,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13584,7 +13589,7 @@
         <v>44312</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13641,7 +13646,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13698,7 +13703,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13755,7 +13760,7 @@
         <v>44337</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13812,7 +13817,7 @@
         <v>44354</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13869,7 +13874,7 @@
         <v>44363</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13926,7 +13931,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13983,7 +13988,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14040,7 +14045,7 @@
         <v>44389</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14102,7 +14107,7 @@
         <v>44403</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14159,7 +14164,7 @@
         <v>44404</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14216,7 +14221,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14273,7 +14278,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14330,7 +14335,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14387,7 +14392,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14444,7 +14449,7 @@
         <v>44417</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14501,7 +14506,7 @@
         <v>44418</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14558,7 +14563,7 @@
         <v>44423</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14615,7 +14620,7 @@
         <v>44424</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14672,7 +14677,7 @@
         <v>44426</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14734,7 +14739,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14796,7 +14801,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14858,7 +14863,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14920,7 +14925,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14977,7 +14982,7 @@
         <v>44434</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15034,7 +15039,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15091,7 +15096,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15148,7 +15153,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15205,7 +15210,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15262,7 +15267,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15319,7 +15324,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15376,7 +15381,7 @@
         <v>44446</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15433,7 +15438,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15490,7 +15495,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15547,7 +15552,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15604,7 +15609,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15661,7 +15666,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15718,7 +15723,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15775,7 +15780,7 @@
         <v>44494</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15832,7 +15837,7 @@
         <v>44495</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15889,7 +15894,7 @@
         <v>44497</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15946,7 +15951,7 @@
         <v>44504</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16003,7 +16008,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16060,7 +16065,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16117,7 +16122,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16174,7 +16179,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16231,7 +16236,7 @@
         <v>44520</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16288,7 +16293,7 @@
         <v>44522</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16345,7 +16350,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16402,7 +16407,7 @@
         <v>44532</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16459,7 +16464,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16516,7 +16521,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16573,7 +16578,7 @@
         <v>44537</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16635,7 +16640,7 @@
         <v>44538</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16692,7 +16697,7 @@
         <v>44544</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16749,7 +16754,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16806,7 +16811,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16863,7 +16868,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16920,7 +16925,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16977,7 +16982,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17034,7 +17039,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17091,7 +17096,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17148,7 +17153,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17205,7 +17210,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17262,7 +17267,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17319,7 +17324,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17376,7 +17381,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17433,7 +17438,7 @@
         <v>44571</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17490,7 +17495,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17547,7 +17552,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17604,7 +17609,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17661,7 +17666,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17723,7 +17728,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17785,7 +17790,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17842,7 +17847,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17899,7 +17904,7 @@
         <v>44601</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17956,7 +17961,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18013,7 +18018,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18070,7 +18075,7 @@
         <v>44635</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18127,7 +18132,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18184,7 +18189,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18241,7 +18246,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18298,7 +18303,7 @@
         <v>44671</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18355,7 +18360,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18412,7 +18417,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18469,7 +18474,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18531,7 +18536,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18593,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18650,7 +18655,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18707,7 +18712,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18764,7 +18769,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18826,7 +18831,7 @@
         <v>44705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18883,7 +18888,7 @@
         <v>44715</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18945,7 +18950,7 @@
         <v>44726</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19002,7 +19007,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19064,7 +19069,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19121,7 +19126,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19183,7 +19188,7 @@
         <v>44729</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19240,7 +19245,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19297,7 +19302,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19354,7 +19359,7 @@
         <v>44770</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19411,7 +19416,7 @@
         <v>44776</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19468,7 +19473,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19525,7 +19530,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19587,7 +19592,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19649,7 +19654,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19711,7 +19716,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19768,7 +19773,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19830,7 +19835,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19892,7 +19897,7 @@
         <v>44816</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19954,7 +19959,7 @@
         <v>44831</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20011,7 +20016,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20073,7 +20078,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20130,7 +20135,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20187,7 +20192,7 @@
         <v>44837</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20249,7 +20254,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20306,7 +20311,7 @@
         <v>44860</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20363,7 +20368,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20420,7 +20425,7 @@
         <v>44881</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20477,7 +20482,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20534,7 +20539,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20596,7 +20601,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20658,7 +20663,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20715,7 +20720,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20772,7 +20777,7 @@
         <v>44901</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20829,7 +20834,7 @@
         <v>44904</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20886,7 +20891,7 @@
         <v>44907</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20943,7 +20948,7 @@
         <v>44914</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21000,7 +21005,7 @@
         <v>44916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21057,7 +21062,7 @@
         <v>44917</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21114,7 +21119,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21171,7 +21176,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21228,7 +21233,7 @@
         <v>44928</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21285,7 +21290,7 @@
         <v>44945</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21342,7 +21347,7 @@
         <v>44977</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21399,7 +21404,7 @@
         <v>44981</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21461,7 +21466,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21518,7 +21523,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21575,7 +21580,7 @@
         <v>45011</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21632,7 +21637,7 @@
         <v>45037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21689,7 +21694,7 @@
         <v>45041</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21746,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21803,7 +21808,7 @@
         <v>45049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21860,7 +21865,7 @@
         <v>45050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21917,7 +21922,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21974,7 +21979,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22036,7 +22041,7 @@
         <v>45063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22093,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22155,7 +22160,7 @@
         <v>45092</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22217,7 +22222,7 @@
         <v>45104</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22274,7 +22279,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22331,7 +22336,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22388,7 +22393,7 @@
         <v>45128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22445,7 +22450,7 @@
         <v>45136</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22502,7 +22507,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22559,7 +22564,7 @@
         <v>45142</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22616,7 +22621,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45068</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43378</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43395</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43451</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43546</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43551</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43600</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43605</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43607</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43707</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43745</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43748</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43762</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43781</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43787</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43789</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43790</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43797</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43819</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43829</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43936</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44000</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44004</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44013</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44015</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44077</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44113</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44123</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44132</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44135</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44153</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44172</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>44183</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44194</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44217</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44225</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44245</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44258</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44312</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44337</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44354</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44363</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44389</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44403</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44404</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44417</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44418</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44423</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44424</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44426</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>44434</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>44446</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>44494</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
         <v>44495</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>44497</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44504</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44520</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44522</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44532</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44537</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44538</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44544</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44571</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44601</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44635</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44671</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>44715</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44726</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44729</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44770</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44776</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44816</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44831</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44837</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>44860</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>44881</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44901</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44904</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44907</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>44914</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44917</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44928</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44945</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44977</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44981</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45011</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45041</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45092</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>45104</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22336,7 +22336,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>45136</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>45142</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45068</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43378</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43395</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43451</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43490</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43541</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43546</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43551</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43600</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43605</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43607</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43658</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43677</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43707</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43740</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43745</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43748</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>43762</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43781</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43787</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43789</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43790</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43797</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43803</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43809</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43819</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43829</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43858</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43864</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43936</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43943</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43945</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44000</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44004</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44013</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44015</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44077</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44113</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44123</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44130</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44132</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44135</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44153</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44172</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>44183</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44194</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44214</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44217</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44225</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44245</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44252</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44258</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44277</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44291</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44312</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44327</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44337</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44354</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44363</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44366</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44389</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44403</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44404</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44405</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44406</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44417</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44418</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44423</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44424</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44426</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44432</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>44434</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44441</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>44446</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44452</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>44494</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
         <v>44495</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>44497</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44504</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44508</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44520</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44522</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44532</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44536</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44537</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44538</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44544</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44551</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44553</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44557</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44564</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44571</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44585</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44587</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44589</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44601</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44635</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44662</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44671</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44672</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44692</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>44715</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44726</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44728</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44729</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44748</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44770</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44776</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44810</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44816</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44831</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44837</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>44860</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>44881</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44888</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44901</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44904</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44907</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>44914</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44917</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44925</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44928</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44945</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44977</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44981</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45011</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45041</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45054</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45092</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>45104</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>45118</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22336,7 +22336,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>45136</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>45142</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>45161</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y373"/>
+  <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45068</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43451</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43486</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43503</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43507</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43522</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43551</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43557</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43600</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43607</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43610</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43634</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43643</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43658</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>43686</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43727</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43745</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43748</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43752</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43766</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43781</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43782</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43787</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43789</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43791</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43797</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43803</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43819</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43829</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43857</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43858</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43864</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43873</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43936</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43943</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43945</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44004</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44008</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44013</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44015</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>44074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44077</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44113</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44123</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44130</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44132</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44135</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44153</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44172</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44183</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44194</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44214</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44225</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44238</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44244</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44245</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44252</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44256</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44258</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44277</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44291</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44305</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44312</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44327</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44337</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44354</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44363</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>44366</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44389</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44403</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44404</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44405</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44406</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44418</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44423</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44424</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44426</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44434</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44440</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44441</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44484</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44494</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44495</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44497</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44504</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44508</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44520</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44522</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44529</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44536</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44537</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44538</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44544</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44551</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>44553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44557</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44564</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44571</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44585</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44587</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44589</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44601</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44634</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44635</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44662</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44672</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44683</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44690</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44715</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44726</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44729</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44770</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44776</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44781</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44785</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44796</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44810</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44816</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44831</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44833</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44837</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44838</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44860</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44879</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44888</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44890</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>44901</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44904</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>44907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44916</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44917</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>44925</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44928</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44945</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44981</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44987</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45011</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45048</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45049</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45063</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45068</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45092</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45118</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45136</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45139</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45142</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="R372" s="2" t="inlineStr"/>
     </row>
-    <row r="373">
+    <row r="373" ht="15" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
           <t>A 38137-2023</t>
@@ -22711,7 +22711,7 @@
         <v>45161</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,6 +22762,63 @@
         <v>0</v>
       </c>
       <c r="R373" s="2" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>A 47082-2023</t>
+        </is>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C374" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>ÖVERTORNEÅ</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45068</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43451</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43486</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43503</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43507</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43522</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43551</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43557</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43600</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43607</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43610</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43634</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43643</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43658</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>43686</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43727</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43745</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43748</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43752</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43766</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43781</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43782</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43787</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43789</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43791</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43797</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43803</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43819</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43829</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43857</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43858</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43864</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43873</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43936</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43943</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43945</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44004</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44008</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44013</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44015</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>44074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44077</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44113</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44123</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44130</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44132</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44135</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44153</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44172</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44183</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44194</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44214</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44225</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44238</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44244</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44245</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44252</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44256</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44258</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44277</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44291</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44305</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44312</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44327</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44337</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44354</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44363</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>44366</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44389</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44403</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44404</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44405</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44406</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44418</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44423</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44424</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44426</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44434</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44440</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44441</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44484</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44494</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44495</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44497</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44504</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44508</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44520</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44522</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44529</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44536</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44537</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44538</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44544</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44551</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>44553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44557</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44564</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44571</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44585</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44587</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44589</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44601</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44634</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44635</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44662</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44672</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44683</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44690</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44715</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44726</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44729</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44770</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44776</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44781</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44785</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44796</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44810</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44816</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44831</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44833</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44837</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44838</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44860</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44879</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44888</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44890</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>44901</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44904</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>44907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44916</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44917</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>44925</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44928</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44945</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44981</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44987</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45011</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45048</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45049</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45063</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45068</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45092</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45118</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45136</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45139</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45142</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45161</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45201</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45068</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43451</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43486</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43503</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43507</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43522</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43551</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43557</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43600</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43607</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43610</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43634</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43643</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43658</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>43686</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43727</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43745</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43748</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43752</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43766</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43781</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43782</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43787</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43789</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43791</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43797</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43803</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43819</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43829</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43857</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43858</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43864</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43873</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43936</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43943</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43945</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44004</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44008</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44013</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44015</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>44074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44077</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44113</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44123</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44130</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44132</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44135</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44153</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44172</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44183</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44194</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44214</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44225</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44238</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44244</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44245</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44252</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44256</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44258</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44277</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44291</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44305</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44312</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44327</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44337</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44354</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44363</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>44366</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44389</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44403</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44404</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44405</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44406</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44418</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44423</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44424</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44426</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44434</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44440</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44441</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44484</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44494</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44495</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44497</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44504</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44508</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44520</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44522</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44529</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44536</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44537</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44538</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44544</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44551</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>44553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44557</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44564</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44571</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44585</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44587</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44589</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44601</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44634</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44635</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44662</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44672</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44683</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44690</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44715</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44726</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44729</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44770</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44776</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44781</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44785</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44796</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44810</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44816</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44831</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44833</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44837</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44838</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44860</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44879</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44888</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44890</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>44901</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44904</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>44907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44916</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44917</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>44925</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44928</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44945</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44981</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44987</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45011</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45048</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45049</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45063</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45068</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45092</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45118</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45136</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45139</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45142</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45161</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45201</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45068</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45017</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44216</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>45044</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44495</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44714</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45161</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43451</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43486</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43503</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43503</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43507</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43522</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43541</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43551</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43557</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43600</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43607</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43610</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43634</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43643</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43658</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>43658</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>43658</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43658</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43658</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43658</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43658</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43686</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43686</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>43686</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43727</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43745</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43748</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43752</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43752</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43766</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43781</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43782</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43787</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43789</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43791</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43791</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43797</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43803</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43803</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43809</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43819</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43829</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43857</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43858</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43858</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43858</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43864</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43864</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43864</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43873</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43900</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43936</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43943</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43943</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43945</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44004</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44008</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44008</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44013</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44015</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>44074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44077</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44090</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44090</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44113</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44123</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44130</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44130</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44132</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44135</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44153</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44172</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44183</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44194</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44214</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44214</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44225</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44238</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44238</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44238</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44244</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44244</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44245</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44252</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44252</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44256</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44258</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44277</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44277</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44277</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44277</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44291</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44291</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44305</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44305</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44305</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44305</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44312</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44327</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44337</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44354</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44363</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>44366</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>44366</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44389</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44403</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44404</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44405</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44405</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44406</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44406</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44418</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44423</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44424</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44426</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44434</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44440</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44441</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44441</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44441</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44441</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44441</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44446</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44452</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44452</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44452</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44484</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44494</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44495</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44497</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44504</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44508</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44508</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44520</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44522</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44529</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44536</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44536</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44537</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44538</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44544</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>44551</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44551</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44553</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44553</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>44553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44557</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44557</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44557</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44564</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44564</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44564</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44571</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44585</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44585</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44587</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44587</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44589</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44589</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44601</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44634</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44634</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44635</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44662</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44662</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44662</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44672</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44683</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44683</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44690</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44692</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44715</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44726</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44728</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44729</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44748</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44770</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44776</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44781</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44785</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44785</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44796</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44810</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44810</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44816</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44831</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44833</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44833</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44837</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44838</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44860</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44879</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44888</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44890</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44890</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>44901</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44904</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>44907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44916</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44917</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>44925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>44925</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44928</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44945</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44981</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44987</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44987</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45011</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45048</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45049</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45054</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45063</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45068</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45092</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45118</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45136</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45139</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45142</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45161</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45201</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
